--- a/version_CG_v2/Consolidado_python_Eloi.xlsx
+++ b/version_CG_v2/Consolidado_python_Eloi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloikling1/Documents/stage/cofidis/modele_de_ML /version_CG_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131AEFF4-7B03-9E4F-9497-B6872720734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F2149-F122-4044-82D8-B1FF89972DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{FF67A789-9308-45BE-8671-A0C9B5EB1E0A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" xr2:uid="{FF67A789-9308-45BE-8671-A0C9B5EB1E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -47,199 +47,6 @@
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6D075031-910B-4A14-B967-13BFEBAFB589}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KLING Eloi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Real data: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://data-explorer.oecd.org/vis?tm=DF_EO&amp;pg=0&amp;snb=1&amp;vw=tb&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_EO%40DF_EO&amp;df[ag]=OECD.ECO.MAD&amp;df[vs]=&amp;lb=bt&amp;dq=PRT.GDPV_ANNPCT.Q&amp;pd=2019-Q3%2C2027-Q4&amp;ly[cl]=TIME_PERIOD&amp;ly[rs]=MEASURE&amp;to[TIME_PERIOD]=false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{951D2C0B-9611-4FAD-85B4-37FCA7465DCE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KLING Eloi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Real data:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">https://bpstat.bportugal.pt/conteudos/noticias/1299
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Forecast:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{BD66DD9E-38B2-4D68-B45F-E2BE9F4C3B86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">KLING Eloi:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Real data:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">https://data-explorer.oecd.org/vis?lc=en&amp;tm=unemployment&amp;pg=0&amp;fs[0]=Topic%2C1%7CEmployment%23JOB%23%7CUnemployment%20indicators%23JOB_UNEMP%23&amp;fs[1]=Reference%20area%2C0%7CPortugal%23PRT%23&amp;fc=Reference%20area&amp;snb=18&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_LFS%40DF_IALFS_UNE_M&amp;df[ag]=OECD.SDD.TPS&amp;df[vs]=1.0&amp;dq=PRT..._Z.Y._T.Y_GE15..M&amp;pd=2019-10%2C2025-11&amp;to[TIME_PERIOD]=false&amp;vw=tb
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>F</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">orecast: 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1D3AA048-F44A-490E-BE82-D8572FE61EE4}">
       <text>
         <r>
           <rPr>
@@ -288,13 +95,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">https://www.ecb.europa.eu/stats/financial_markets_and_interest_rates/long_term_interest_rates/html/index.en.html
-</t>
+          <t>https://data-explorer.oecd.org/vis?tm=DF_EO&amp;pg=0&amp;snb=1&amp;vw=tb&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_EO%40DF_EO&amp;df[ag]=OECD.ECO.MAD&amp;df[vs]=&amp;lb=bt&amp;dq=PRT.GDPV_ANNPCT.Q&amp;pd=2019-Q3%2C2027-Q4&amp;ly[cl]=TIME_PERIOD&amp;ly[rs]=MEASURE&amp;to[TIME_PERIOD]=false</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{951D2C0B-9611-4FAD-85B4-37FCA7465DCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KLING Eloi:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -305,7 +125,120 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Real data:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://bpstat.bportugal.pt/conteudos/noticias/1299
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forecast:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{BD66DD9E-38B2-4D68-B45F-E2BE9F4C3B86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KLING Eloi:
+Real data:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://data-explorer.oecd.org/vis?lc=en&amp;tm=unemployment&amp;pg=0&amp;fs[0]=Topic%2C1%7CEmployment%23JOB%23%7CUnemployment%20indicators%23JOB_UNEMP%23&amp;fs[1]=Reference%20area%2C0%7CPortugal%23PRT%23&amp;fc=Reference%20area&amp;snb=18&amp;df[ds]=dsDisseminateFinalDMZ&amp;df[id]=DSD_LFS%40DF_IALFS_UNE_M&amp;df[ag]=OECD.SDD.TPS&amp;df[vs]=1.0&amp;dq=PRT..._Z.Y._T.Y_GE15..M&amp;pd=2019-10%2C2025-11&amp;to[TIME_PERIOD]=false&amp;vw=tb
+F</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">orecast: 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1D3AA048-F44A-490E-BE82-D8572FE61EE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KLING Eloi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Real data: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.ecb.europa.eu/stats/financial_markets_and_interest_rates/long_term_interest_rates/html/index.en.html
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -314,7 +247,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -329,58 +262,29 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">KLING Eloi:
+          <t>KLING Eloi:
+Forecast:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.oecd.org/en/data/indicators/short-term-interest-rates-forecast.html?oecdcontrol-68a15c79cc-var3=1971-Q1&amp;oecdcontrol-68a15c79cc-var4=2025-Q4&amp;oecdcontrol-68a15c79cc-var5=Q
 </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Forecast:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">https://www.oecd.org/en/data/indicators/short-term-interest-rates-forecast.html?oecdcontrol-68a15c79cc-var3=1971-Q1&amp;oecdcontrol-68a15c79cc-var4=2025-Q4&amp;oecdcontrol-68a15c79cc-var5=Q
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -389,21 +293,12 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://www.oecd.org/fr/data/indicators/short-term-interest-rates.html?oecdcontrol-e4e765a1a9-var1=PRT&amp;oecdcontrol-4c072e451c-var3=2025-08&amp;oecdcontrol-4c072e451c-var5=M</t>
+https://www.oecd.org/fr/data/indicators/short-term-interest-rates.html?oecdcontrol-e4e765a1a9-var1=PRT&amp;oecdcontrol-4c072e451c-var3=2025-08&amp;oecdcontrol-4c072e451c-var5=M</t>
         </r>
       </text>
     </comment>
@@ -413,28 +308,18 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">KLING Eloi:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Real data:
+Real data:
 </t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -445,7 +330,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -454,21 +339,12 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>https://longforecast.com/euribor-forecast-2017-2018-2019</t>
+https://longforecast.com/euribor-forecast-2017-2018-2019</t>
         </r>
       </text>
     </comment>
@@ -514,7 +390,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +456,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -652,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -683,6 +565,9 @@
     <xf numFmtId="168" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1000,10 +885,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EB4A5E-7A79-48A9-871C-EF71475EB9D6}">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="B86" sqref="B86"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2652,7 +2537,9 @@
       <c r="B63" s="19">
         <v>3.6262095661894846E-2</v>
       </c>
-      <c r="C63" s="18"/>
+      <c r="C63" s="18">
+        <v>1.4</v>
+      </c>
       <c r="D63" s="12">
         <v>3.1</v>
       </c>
@@ -2677,7 +2564,9 @@
       <c r="B64" s="19">
         <v>3.5308759715721394E-2</v>
       </c>
-      <c r="C64" s="18"/>
+      <c r="C64" s="18">
+        <v>-0.4</v>
+      </c>
       <c r="D64" s="11">
         <v>2.7</v>
       </c>
@@ -2702,7 +2591,9 @@
       <c r="B65" s="19">
         <v>3.7974124919685583E-2</v>
       </c>
-      <c r="C65" s="18"/>
+      <c r="C65" s="18">
+        <v>-0.4</v>
+      </c>
       <c r="D65" s="11">
         <v>2.5</v>
       </c>
@@ -2727,7 +2618,9 @@
       <c r="B66" s="19">
         <v>3.3439077049627342E-2</v>
       </c>
-      <c r="C66" s="18"/>
+      <c r="C66" s="18">
+        <v>-0.4</v>
+      </c>
       <c r="D66" s="11">
         <v>1.9</v>
       </c>
@@ -2752,7 +2645,9 @@
       <c r="B67" s="19">
         <v>3.6097959571190885E-2</v>
       </c>
-      <c r="C67" s="18"/>
+      <c r="C67" s="18">
+        <v>0.6</v>
+      </c>
       <c r="D67" s="11">
         <v>2.1</v>
       </c>
@@ -2777,7 +2672,9 @@
       <c r="B68" s="19">
         <v>3.8396342704278837E-2</v>
       </c>
-      <c r="C68" s="18"/>
+      <c r="C68" s="18">
+        <v>0.6</v>
+      </c>
       <c r="D68" s="11">
         <v>1.7</v>
       </c>
@@ -2802,7 +2699,9 @@
       <c r="B69" s="19">
         <v>3.4454649352211E-2</v>
       </c>
-      <c r="C69" s="18"/>
+      <c r="C69" s="18">
+        <v>0.6</v>
+      </c>
       <c r="D69" s="11">
         <v>2.1</v>
       </c>
@@ -2827,7 +2726,9 @@
       <c r="B70" s="19">
         <v>3.5598892336756852E-2</v>
       </c>
-      <c r="C70" s="18"/>
+      <c r="C70" s="22">
+        <v>1.85</v>
+      </c>
       <c r="D70" s="11">
         <v>2.5</v>
       </c>
@@ -2907,7 +2808,7 @@
         <v>3.8587812275953572E-2</v>
       </c>
       <c r="C73" s="15">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="D73" s="11">
         <v>2</v>
@@ -2930,11 +2831,15 @@
       <c r="A74" s="2">
         <v>202511</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="24">
+        <v>3.8587812275953572E-2</v>
+      </c>
       <c r="C74" s="15">
-        <v>2.96</v>
-      </c>
-      <c r="D74" s="11"/>
+        <v>1.78</v>
+      </c>
+      <c r="D74" s="23">
+        <v>2</v>
+      </c>
       <c r="E74" s="15">
         <v>6.2095871999999996</v>
       </c>
@@ -2955,7 +2860,7 @@
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13">
-        <v>2.96</v>
+        <v>1.78</v>
       </c>
       <c r="D75" s="13">
         <v>2.2000000000000002</v>
